--- a/Data/活动充值.xlsx
+++ b/Data/活动充值.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>环境（test测试环境31，pre准生产）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,15 +52,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>322271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,11 +84,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass1</t>
+    <t>pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,16 +449,16 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="30.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="32.625" customWidth="1"/>
   </cols>
@@ -483,132 +491,132 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>200</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>200</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>200</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" s="1">
         <v>200</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="1">
-        <v>200</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1">
-        <v>200</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="1">
+        <v>200</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <v>200</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>200</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>200</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
